--- a/ExtractInvoices/Config_ExtractInv.xlsx
+++ b/ExtractInvoices/Config_ExtractInv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="830" yWindow="-110" windowWidth="30000" windowHeight="17500"/>
+    <workbookView xWindow="830" yWindow="-110" windowWidth="30000" windowHeight="17500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Quantity,Unit Price,Line Amount</t>
   </si>
   <si>
-    <t>Date-Confidence</t>
-  </si>
-  <si>
     <t>Invoice Number-Confidence</t>
   </si>
   <si>
@@ -247,15 +244,9 @@
     <t>Tax Amount,Shipping Charges</t>
   </si>
   <si>
-    <t>Tax Amount,Net Amount,Shipping Charges,Total, Vendor Name, Vendor Address</t>
-  </si>
-  <si>
     <t>Billing Name-Confidence</t>
   </si>
   <si>
-    <t>InvoiceDate,Invoice Number,PO Number,Total</t>
-  </si>
-  <si>
     <t>InvoiceDate,Billing Name,Invoice Number,PO Number</t>
   </si>
   <si>
@@ -353,6 +344,105 @@
   </si>
   <si>
     <t>ExtractInvoices_ApplicationLog_</t>
+  </si>
+  <si>
+    <t>SkipExtractorTraining</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>If set to True, extractor training will not be performed. Has a corresponding asset that can be configured to overwrite this setting.</t>
+  </si>
+  <si>
+    <t>InvoicesTrainingFolder</t>
+  </si>
+  <si>
+    <t>Path for ML model training - Invoices</t>
+  </si>
+  <si>
+    <t>Extract Invoices\Data\InvoicesTraining</t>
+  </si>
+  <si>
+    <t>LogMessage_CreateValidationAction</t>
+  </si>
+  <si>
+    <t>Creating data validation action for:</t>
+  </si>
+  <si>
+    <t>LogMessage_WaitOnValidationAction</t>
+  </si>
+  <si>
+    <t>Waiting on data validation action #</t>
+  </si>
+  <si>
+    <t>LogMessage_ShowValidationStation</t>
+  </si>
+  <si>
+    <t>Presenting Validation Station for:</t>
+  </si>
+  <si>
+    <t>LogMessage_ResumeAfterDataValidation</t>
+  </si>
+  <si>
+    <t>Resuming after data validation action #{0}. Document: {1}</t>
+  </si>
+  <si>
+    <t>LogMessage_TrainExtractorsStart</t>
+  </si>
+  <si>
+    <t>Train extractors started</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_LineAmountFailureMath</t>
+  </si>
+  <si>
+    <t>Quantity * Unit-price is not equal to Line Amount!</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_LineAmountFailureEmpty</t>
+  </si>
+  <si>
+    <t>Quantity or Unit-price is Empty!</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_AlreadySetFalse</t>
+  </si>
+  <si>
+    <t>AutoExtraction is already set to false in a previous step. Skipping rest of checks.</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_SubtotalFailure</t>
+  </si>
+  <si>
+    <t>Subtotal Failure with subtotal: {0} and net-amount {1}</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_TotalFailure</t>
+  </si>
+  <si>
+    <t>Total Computation Failed!</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_SubtotalPass</t>
+  </si>
+  <si>
+    <t>Subtotal Pass with subtotal: {0} and net-amount {1}</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_ConfidenceFieldsFailure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are the fields that failed: </t>
+  </si>
+  <si>
+    <t>Vendor Name,Vendor Address,Billing Name,InvoiceDate,Invoice Number,PO Number,Total</t>
+  </si>
+  <si>
+    <t>Tax Amount,Net Amount,Shipping Charges,Total</t>
+  </si>
+  <si>
+    <t>InvoiceDate-Confidence</t>
   </si>
 </sst>
 </file>
@@ -746,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -794,10 +884,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -805,10 +895,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -816,39 +906,39 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -860,7 +950,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -869,51 +959,51 @@
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -921,22 +1011,46 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1895,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A43" sqref="A43:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2056,147 +2170,231 @@
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+    </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3139,6 +3337,18 @@
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3150,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3174,7 +3384,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -3185,7 +3395,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -3196,7 +3406,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -3218,7 +3428,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -3229,7 +3439,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
@@ -3237,7 +3447,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="B9">
         <v>90</v>
@@ -3245,7 +3455,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -3253,7 +3463,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>90</v>
@@ -3261,7 +3471,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>90</v>

--- a/ExtractInvoices/Config_ExtractInv.xlsx
+++ b/ExtractInvoices/Config_ExtractInv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="830" yWindow="-110" windowWidth="30000" windowHeight="17500" activeTab="2"/>
+    <workbookView xWindow="830" yWindow="-110" windowWidth="30000" windowHeight="17500"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3360,7 +3360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/ExtractInvoices/Config_ExtractInv.xlsx
+++ b/ExtractInvoices/Config_ExtractInv.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -443,13 +443,28 @@
   </si>
   <si>
     <t>InvoiceDate-Confidence</t>
+  </si>
+  <si>
+    <t>ServiceVendorList</t>
+  </si>
+  <si>
+    <t>AMMACORE,ARTEL COMMUNICATIONS,DATA TECH PLUS,HRJ COMMUNICATIONS,K &amp; M COMMUNICATIONS,METRO SERVICES,PLATINUM VOICE AND DATA,RICKTEL COMMUNICATIONS,RUBEN ELECTRIC TECHNOLOGY,RWTC,SUNBELT RENTALS,TELESPHERE,UPTIME COMMUNICATIONS,WESTSCOTT,WHITLOW COMMUNICATIONS,WORK MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of all vendor who provides services </t>
+  </si>
+  <si>
+    <t>https://du.uipath.com/ocr</t>
+  </si>
+  <si>
+    <t>OCRPublicEndPoint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -486,6 +501,12 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -504,10 +525,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -520,8 +542,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -837,7 +873,7 @@
   <dimension ref="A1:Z982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -956,7 +992,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>90</v>
@@ -2002,8 +2045,11 @@
     <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3358,16 +3404,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.90625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="115" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3375,7 +3421,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -3386,7 +3432,7 @@
       <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>2</v>
       </c>
     </row>
@@ -3394,18 +3440,18 @@
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C4" t="s">
@@ -3416,7 +3462,7 @@
       <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
@@ -3427,7 +3473,7 @@
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="s">
@@ -3438,50 +3484,61 @@
       <c r="A7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9">
-        <v>90</v>
+    <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
+        <v>136</v>
+      </c>
+      <c r="B10" s="9">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="B11" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="9">
         <v>75</v>
       </c>
     </row>

--- a/ExtractInvoices/Config_ExtractInv.xlsx
+++ b/ExtractInvoices/Config_ExtractInv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="830" yWindow="-110" windowWidth="30000" windowHeight="17500"/>
+    <workbookView xWindow="830" yWindow="-110" windowWidth="30000" windowHeight="17500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -313,9 +313,6 @@
     <t>LogMessage_InvoiceSuccessMsg</t>
   </si>
   <si>
-    <t>Date,Invoice File Name,Log Type,Message,Target Folder,Status</t>
-  </si>
-  <si>
     <t>C:\Automation\Invoice Processing</t>
   </si>
   <si>
@@ -458,6 +455,21 @@
   </si>
   <si>
     <t>OCRPublicEndPoint</t>
+  </si>
+  <si>
+    <t>StartDateTime,EndDateTime,Invoice File Name,Log Type,Message,Target Folder,Status</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_InvalidPONumber</t>
+  </si>
+  <si>
+    <t>PO Number is not valid!</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_PONumberCheckPass</t>
+  </si>
+  <si>
+    <t>PO Number is Valid….</t>
   </si>
 </sst>
 </file>
@@ -872,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -920,10 +932,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -931,10 +943,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -945,7 +957,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>66</v>
@@ -965,7 +977,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -974,7 +986,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -994,10 +1006,10 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -1005,7 +1017,7 @@
         <v>90</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -1014,7 +1026,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -1023,7 +1035,7 @@
         <v>84</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>85</v>
@@ -1034,7 +1046,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="6"/>
     </row>
@@ -1056,24 +1068,24 @@
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2055,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2221,42 +2233,42 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
         <v>110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
         <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
         <v>114</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
         <v>116</v>
-      </c>
-      <c r="B19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
         <v>118</v>
-      </c>
-      <c r="B20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2293,156 +2305,170 @@
     </row>
     <row r="25" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
         <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
         <v>122</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
         <v>124</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
         <v>126</v>
-      </c>
-      <c r="B28" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
         <v>128</v>
-      </c>
-      <c r="B29" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
         <v>130</v>
       </c>
-      <c r="B30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
         <v>132</v>
       </c>
-      <c r="B39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="42" spans="1:2" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-    </row>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+    </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3395,6 +3421,8 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3407,7 +3435,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3452,7 +3480,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -3485,7 +3513,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
@@ -3493,18 +3521,18 @@
     </row>
     <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="9">
         <v>90</v>

--- a/ExtractInvoices/Config_ExtractInv.xlsx
+++ b/ExtractInvoices/Config_ExtractInv.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -468,7 +468,10 @@
     <t>PO Number is Valid….</t>
   </si>
   <si>
-    <t>q0/lpVK51tpxVlpanPZxXPkBUcv9ajK1664/ttF6ayOODJeHPSQyT+dwWNV22VEHq0PoS2K/0NvjLL0KGA+0Iw==</t>
+    <t>ojyJV61Hk56T501NAs1Qkjpj02mY0ZyxAhjEQZsUGiiJE/pRftBxRlUakxdPDNj+czQw2+LnUJx6ngnQEPoQ2A==</t>
+  </si>
+  <si>
+    <t>AMMACORE</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -1488,6 +1491,9 @@
       <c r="A72" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="B72" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="C72" s="8" t="s">
         <v>137</v>
       </c>

--- a/ExtractInvoices/Config_ExtractInv.xlsx
+++ b/ExtractInvoices/Config_ExtractInv.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -471,7 +471,16 @@
     <t>ojyJV61Hk56T501NAs1Qkjpj02mY0ZyxAhjEQZsUGiiJE/pRftBxRlUakxdPDNj+czQw2+LnUJx6ngnQEPoQ2A==</t>
   </si>
   <si>
-    <t>AMMACORE</t>
+    <t>InvoiceToBeValidated</t>
+  </si>
+  <si>
+    <t>Extract Invoices\Data\InvoiceToBeValidated</t>
+  </si>
+  <si>
+    <t>DisableValidationStation</t>
+  </si>
+  <si>
+    <t>AMMACORE,SUNBELT RENTALS</t>
   </si>
 </sst>
 </file>
@@ -867,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -973,7 +982,12 @@
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1071,8 +1085,12 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1492,7 +1510,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>137</v>
